--- a/utils/result.xlsx
+++ b/utils/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencewang/Desktop/SpringSem2019/ComputerArchitecture/Experiment/experiment/CRC/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D6386-8F3B-8A49-9A5F-7483392B52E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE04E93-6229-344E-966B-356664EC3538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>LRU</t>
   </si>
   <si>
     <t>Trace</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -382,252 +385,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF70AC-657B-2244-93C2-2037CCC8E81B}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400</v>
       </c>
       <c r="B2">
         <v>40.795000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>44.405999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>401</v>
       </c>
       <c r="B3">
         <v>61.737000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>61.677999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>403</v>
       </c>
       <c r="B4">
         <v>42.752000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>45.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>410</v>
       </c>
       <c r="B5">
         <v>99.662999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>99.662999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>416</v>
       </c>
       <c r="B6">
         <v>26.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>27.655000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>429</v>
       </c>
       <c r="B7">
         <v>74.906999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>76.683000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>433</v>
       </c>
       <c r="B8">
         <v>77.834000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>76.948999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>434</v>
       </c>
       <c r="B9">
         <v>80.81</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>82.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>435</v>
       </c>
       <c r="B10">
         <v>71.197999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>74.372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>436</v>
       </c>
       <c r="B11">
         <v>76.116</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>73.781999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>437</v>
       </c>
       <c r="B12">
         <v>84.191000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>81.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>444</v>
       </c>
       <c r="B13">
         <v>66.260000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>66.311999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>445</v>
       </c>
       <c r="B14">
         <v>14.919</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>20.484000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>447</v>
       </c>
       <c r="B15">
         <v>45.088999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>41.786000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
       <c r="B16">
         <v>15.201000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>17.553999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>453</v>
       </c>
       <c r="B17">
         <v>39.926000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>40.201999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>454</v>
       </c>
       <c r="B18">
         <v>34.049999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>38.319000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>456</v>
       </c>
       <c r="B19">
         <v>71.474000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>71.474000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>458</v>
       </c>
       <c r="B20">
         <v>93.542000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>94.103999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>459</v>
       </c>
       <c r="B21">
         <v>84.153000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>84.153000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>462</v>
       </c>
       <c r="B22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>464</v>
       </c>
       <c r="B23">
         <v>70.009</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>71.772000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>465</v>
       </c>
       <c r="B24">
         <v>78.869</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>79.430999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>470</v>
       </c>
       <c r="B25">
         <v>99.971999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>99.938999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>471</v>
       </c>
       <c r="B26">
         <v>59.444000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>60.055999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>473</v>
       </c>
       <c r="B27">
         <v>5.8470000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>5.8470000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>482</v>
       </c>
       <c r="B28">
         <v>97.156000000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>97.262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>483</v>
       </c>
       <c r="B29">
         <v>66.275999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>67.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>999</v>
       </c>
       <c r="B30">
         <v>95.936999999999998</v>
+      </c>
+      <c r="C30">
+        <v>96.320999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/utils/result.xlsx
+++ b/utils/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencewang/Desktop/SpringSem2019/ComputerArchitecture/Experiment/experiment/CRC/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE04E93-6229-344E-966B-356664EC3538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618D8D9-15F7-F040-A702-8A37F89FD5EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
+    <workbookView xWindow="15120" yWindow="580" windowWidth="28040" windowHeight="17040" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>LRU</t>
   </si>
@@ -385,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF70AC-657B-2244-93C2-2037CCC8E81B}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -403,8 +403,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400</v>
       </c>
@@ -414,8 +417,11 @@
       <c r="C2">
         <v>44.405999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>11.305999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>401</v>
       </c>
@@ -425,8 +431,11 @@
       <c r="C3">
         <v>61.677999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>88.179000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>403</v>
       </c>
@@ -436,8 +445,11 @@
       <c r="C4">
         <v>45.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>98.787999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>410</v>
       </c>
@@ -447,8 +459,11 @@
       <c r="C5">
         <v>99.662999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>88.962000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>416</v>
       </c>
@@ -458,8 +473,11 @@
       <c r="C6">
         <v>27.655000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>82.284999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>429</v>
       </c>
@@ -469,8 +487,11 @@
       <c r="C7">
         <v>76.683000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>111.264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>433</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="C8">
         <v>76.948999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>95.216999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>434</v>
       </c>
@@ -491,8 +515,11 @@
       <c r="C9">
         <v>82.64</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>86.534999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>435</v>
       </c>
@@ -502,8 +529,11 @@
       <c r="C10">
         <v>74.372</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>436</v>
       </c>
@@ -513,8 +543,11 @@
       <c r="C11">
         <v>73.781999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>93.781999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>437</v>
       </c>
@@ -524,8 +557,11 @@
       <c r="C12">
         <v>81.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>89.251999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>444</v>
       </c>
@@ -535,8 +571,11 @@
       <c r="C13">
         <v>66.311999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>75.444999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>445</v>
       </c>
@@ -546,8 +585,11 @@
       <c r="C14">
         <v>20.484000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>86.007000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>447</v>
       </c>
@@ -557,8 +599,11 @@
       <c r="C15">
         <v>41.786000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>100.492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
@@ -568,8 +613,11 @@
       <c r="C16">
         <v>17.553999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>56.247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>453</v>
       </c>
@@ -579,8 +627,11 @@
       <c r="C17">
         <v>40.201999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>102.956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>454</v>
       </c>
@@ -590,8 +641,11 @@
       <c r="C18">
         <v>38.319000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>96.728999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>456</v>
       </c>
@@ -601,8 +655,11 @@
       <c r="C19">
         <v>71.474000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>92.484999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>458</v>
       </c>
@@ -612,8 +669,11 @@
       <c r="C20">
         <v>94.103999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>97.311000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>459</v>
       </c>
@@ -623,8 +683,11 @@
       <c r="C21">
         <v>84.153000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>89.581000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>462</v>
       </c>
@@ -634,8 +697,11 @@
       <c r="C22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>90.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>464</v>
       </c>
@@ -645,8 +711,11 @@
       <c r="C23">
         <v>71.772000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>86.165000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>465</v>
       </c>
@@ -656,8 +725,11 @@
       <c r="C24">
         <v>79.430999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>80.817999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>470</v>
       </c>
@@ -667,8 +739,11 @@
       <c r="C25">
         <v>99.938999999999993</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>98.933000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>471</v>
       </c>
@@ -678,8 +753,11 @@
       <c r="C26">
         <v>60.055999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>91.725999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>473</v>
       </c>
@@ -689,8 +767,11 @@
       <c r="C27">
         <v>5.8470000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>96.027000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>482</v>
       </c>
@@ -700,8 +781,11 @@
       <c r="C28">
         <v>97.262</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>89.194000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>483</v>
       </c>
@@ -711,8 +795,11 @@
       <c r="C29">
         <v>67.58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>94.662999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>999</v>
       </c>
@@ -721,6 +808,9 @@
       </c>
       <c r="C30">
         <v>96.320999999999998</v>
+      </c>
+      <c r="J30">
+        <v>52.363999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/utils/result.xlsx
+++ b/utils/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencewang/Desktop/SpringSem2019/ComputerArchitecture/Experiment/experiment/CRC/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618D8D9-15F7-F040-A702-8A37F89FD5EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA3E115-CAAA-1A4A-9AB2-6F6DBB99EB8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="580" windowWidth="28040" windowHeight="17040" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
+    <workbookView xWindow="9200" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>LRU</t>
   </si>
@@ -40,10 +40,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF70AC-657B-2244-93C2-2037CCC8E81B}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,8 +414,11 @@
       <c r="J1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400</v>
       </c>
@@ -420,8 +431,11 @@
       <c r="J2">
         <v>11.305999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>12.833864200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>401</v>
       </c>
@@ -434,8 +448,11 @@
       <c r="J3">
         <v>88.179000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <v>93.122378100000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>403</v>
       </c>
@@ -448,8 +465,11 @@
       <c r="J4">
         <v>98.787999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <v>97.773061999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>410</v>
       </c>
@@ -462,8 +482,11 @@
       <c r="J5">
         <v>88.962000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <v>90.927670000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>416</v>
       </c>
@@ -476,8 +499,11 @@
       <c r="J6">
         <v>82.284999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1">
+        <v>90.910926099999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>429</v>
       </c>
@@ -490,8 +516,11 @@
       <c r="J7">
         <v>111.264</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1">
+        <v>125.109717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>433</v>
       </c>
@@ -504,8 +533,11 @@
       <c r="J8">
         <v>95.216999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1">
+        <v>98.591913899999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>434</v>
       </c>
@@ -518,8 +550,11 @@
       <c r="J9">
         <v>86.534999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1">
+        <v>84.148328100000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>435</v>
       </c>
@@ -532,8 +567,11 @@
       <c r="J10">
         <v>91.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1">
+        <v>102.326319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>436</v>
       </c>
@@ -546,8 +584,11 @@
       <c r="J11">
         <v>93.781999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <v>95.042506900000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>437</v>
       </c>
@@ -560,8 +601,11 @@
       <c r="J12">
         <v>89.251999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="1">
+        <v>103.19923900000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>444</v>
       </c>
@@ -574,8 +618,11 @@
       <c r="J13">
         <v>75.444999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <v>90.936785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>445</v>
       </c>
@@ -588,8 +635,11 @@
       <c r="J14">
         <v>86.007000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="1">
+        <v>107.70881900000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>447</v>
       </c>
@@ -602,8 +652,11 @@
       <c r="J15">
         <v>100.492</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="1">
+        <v>98.938530200000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
@@ -616,8 +669,11 @@
       <c r="J16">
         <v>56.247</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="1">
+        <v>56.982557999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>453</v>
       </c>
@@ -630,8 +686,11 @@
       <c r="J17">
         <v>102.956</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="1">
+        <v>117.83952499999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>454</v>
       </c>
@@ -644,8 +703,11 @@
       <c r="J18">
         <v>96.728999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="1">
+        <v>102.372985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>456</v>
       </c>
@@ -658,8 +720,11 @@
       <c r="J19">
         <v>92.484999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1">
+        <v>110.181202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>458</v>
       </c>
@@ -672,8 +737,11 @@
       <c r="J20">
         <v>97.311000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="1">
+        <v>91.864862900000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>459</v>
       </c>
@@ -686,8 +754,11 @@
       <c r="J21">
         <v>89.581000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="1">
+        <v>102.67712899999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>462</v>
       </c>
@@ -700,8 +771,11 @@
       <c r="J22">
         <v>90.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="1">
+        <v>110.55234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>464</v>
       </c>
@@ -714,8 +788,11 @@
       <c r="J23">
         <v>86.165000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <v>91.624966099999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>465</v>
       </c>
@@ -728,8 +805,11 @@
       <c r="J24">
         <v>80.817999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="1">
+        <v>82.312310199999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>470</v>
       </c>
@@ -742,8 +822,11 @@
       <c r="J25">
         <v>98.933000000000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="1">
+        <v>105.379064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>471</v>
       </c>
@@ -756,8 +839,11 @@
       <c r="J26">
         <v>91.725999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="1">
+        <v>107.80216900000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>473</v>
       </c>
@@ -770,8 +856,11 @@
       <c r="J27">
         <v>96.027000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <v>118.97743800000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>482</v>
       </c>
@@ -784,8 +873,11 @@
       <c r="J28">
         <v>89.194000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="1">
+        <v>99.840789099999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>483</v>
       </c>
@@ -798,8 +890,11 @@
       <c r="J29">
         <v>94.662999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="1">
+        <v>110.83466799999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>999</v>
       </c>
@@ -811,6 +906,9 @@
       </c>
       <c r="J30">
         <v>52.363999999999997</v>
+      </c>
+      <c r="K30" s="1">
+        <v>60.989860100000001</v>
       </c>
     </row>
   </sheetData>

--- a/utils/result.xlsx
+++ b/utils/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencewang/Desktop/SpringSem2019/ComputerArchitecture/Experiment/experiment/CRC/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA3E115-CAAA-1A4A-9AB2-6F6DBB99EB8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7334B66-CB73-AE47-B28A-FD9C686E2FEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
+    <workbookView xWindow="2840" yWindow="3300" windowWidth="28800" windowHeight="17540" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>LRU</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Protected LRU</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF70AC-657B-2244-93C2-2037CCC8E81B}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -411,14 +414,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400</v>
       </c>
@@ -428,14 +437,20 @@
       <c r="C2">
         <v>44.405999999999999</v>
       </c>
+      <c r="D2">
+        <v>40.625</v>
+      </c>
       <c r="J2">
         <v>11.305999999999999</v>
       </c>
       <c r="K2" s="1">
         <v>12.833864200000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1">
+        <v>11.4239991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>401</v>
       </c>
@@ -445,14 +460,20 @@
       <c r="C3">
         <v>61.677999999999997</v>
       </c>
+      <c r="D3">
+        <v>59.104999999999997</v>
+      </c>
       <c r="J3">
         <v>88.179000000000002</v>
       </c>
       <c r="K3" s="1">
         <v>93.122378100000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1">
+        <v>95.403081900000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>403</v>
       </c>
@@ -462,14 +483,20 @@
       <c r="C4">
         <v>45.64</v>
       </c>
+      <c r="D4">
+        <v>34.162999999999997</v>
+      </c>
       <c r="J4">
         <v>98.787999999999997</v>
       </c>
       <c r="K4" s="1">
         <v>97.773061999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1">
+        <v>99.693224000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>410</v>
       </c>
@@ -479,14 +506,20 @@
       <c r="C5">
         <v>99.662999999999997</v>
       </c>
+      <c r="D5">
+        <v>99.662999999999997</v>
+      </c>
       <c r="J5">
         <v>88.962000000000003</v>
       </c>
       <c r="K5" s="1">
         <v>90.927670000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="1">
+        <v>86.633960000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>416</v>
       </c>
@@ -496,14 +529,20 @@
       <c r="C6">
         <v>27.655000000000001</v>
       </c>
+      <c r="D6">
+        <v>31.651</v>
+      </c>
       <c r="J6">
         <v>82.284999999999997</v>
       </c>
       <c r="K6" s="1">
         <v>90.910926099999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="1">
+        <v>95.512142900000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>429</v>
       </c>
@@ -513,14 +552,20 @@
       <c r="C7">
         <v>76.683000000000007</v>
       </c>
+      <c r="D7">
+        <v>61.924999999999997</v>
+      </c>
       <c r="J7">
         <v>111.264</v>
       </c>
       <c r="K7" s="1">
         <v>125.109717</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="1">
+        <v>111.61560299999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>433</v>
       </c>
@@ -530,14 +575,20 @@
       <c r="C8">
         <v>76.948999999999998</v>
       </c>
+      <c r="D8">
+        <v>73.397000000000006</v>
+      </c>
       <c r="J8">
         <v>95.216999999999999</v>
       </c>
       <c r="K8" s="1">
         <v>98.591913899999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
+        <v>97.492812900000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>434</v>
       </c>
@@ -547,14 +598,20 @@
       <c r="C9">
         <v>82.64</v>
       </c>
+      <c r="D9">
+        <v>80.671999999999997</v>
+      </c>
       <c r="J9">
         <v>86.534999999999997</v>
       </c>
       <c r="K9" s="1">
         <v>84.148328100000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="1">
+        <v>90.203806200000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>435</v>
       </c>
@@ -564,14 +621,20 @@
       <c r="C10">
         <v>74.372</v>
       </c>
+      <c r="D10">
+        <v>88.769000000000005</v>
+      </c>
       <c r="J10">
         <v>91.88</v>
       </c>
       <c r="K10" s="1">
         <v>102.326319</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="1">
+        <v>93.902388099999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>436</v>
       </c>
@@ -581,14 +644,20 @@
       <c r="C11">
         <v>73.781999999999996</v>
       </c>
+      <c r="D11">
+        <v>60.292999999999999</v>
+      </c>
       <c r="J11">
         <v>93.781999999999996</v>
       </c>
       <c r="K11" s="1">
         <v>95.042506900000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="1">
+        <v>86.971398100000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>437</v>
       </c>
@@ -598,14 +667,20 @@
       <c r="C12">
         <v>81.12</v>
       </c>
+      <c r="D12">
+        <v>76.856999999999999</v>
+      </c>
       <c r="J12">
         <v>89.251999999999995</v>
       </c>
       <c r="K12" s="1">
         <v>103.19923900000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="1">
+        <v>97.907253999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>444</v>
       </c>
@@ -615,14 +690,20 @@
       <c r="C13">
         <v>66.311999999999998</v>
       </c>
+      <c r="D13">
+        <v>66.266000000000005</v>
+      </c>
       <c r="J13">
         <v>75.444999999999993</v>
       </c>
       <c r="K13" s="1">
         <v>90.936785</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="1">
+        <v>84.086731900000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>445</v>
       </c>
@@ -632,14 +713,20 @@
       <c r="C14">
         <v>20.484000000000002</v>
       </c>
+      <c r="D14">
+        <v>14.593</v>
+      </c>
       <c r="J14">
         <v>86.007000000000005</v>
       </c>
       <c r="K14" s="1">
         <v>107.70881900000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="1">
+        <v>92.770483999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>447</v>
       </c>
@@ -649,14 +736,20 @@
       <c r="C15">
         <v>41.786000000000001</v>
       </c>
+      <c r="D15">
+        <v>38.935000000000002</v>
+      </c>
       <c r="J15">
         <v>100.492</v>
       </c>
       <c r="K15" s="1">
         <v>98.938530200000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="1">
+        <v>101.884304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
@@ -666,14 +759,20 @@
       <c r="C16">
         <v>17.553999999999998</v>
       </c>
+      <c r="D16">
+        <v>16.059000000000001</v>
+      </c>
       <c r="J16">
         <v>56.247</v>
       </c>
       <c r="K16" s="1">
         <v>56.982557999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="1">
+        <v>53.954671099999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>453</v>
       </c>
@@ -683,14 +782,20 @@
       <c r="C17">
         <v>40.201999999999998</v>
       </c>
+      <c r="D17">
+        <v>39.884999999999998</v>
+      </c>
       <c r="J17">
         <v>102.956</v>
       </c>
       <c r="K17" s="1">
         <v>117.83952499999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="1">
+        <v>98.416799999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>454</v>
       </c>
@@ -700,14 +805,20 @@
       <c r="C18">
         <v>38.319000000000003</v>
       </c>
+      <c r="D18">
+        <v>44.834000000000003</v>
+      </c>
       <c r="J18">
         <v>96.728999999999999</v>
       </c>
       <c r="K18" s="1">
         <v>102.372985</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="1">
+        <v>93.6852071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>456</v>
       </c>
@@ -717,14 +828,20 @@
       <c r="C19">
         <v>71.474000000000004</v>
       </c>
+      <c r="D19">
+        <v>71.474000000000004</v>
+      </c>
       <c r="J19">
         <v>92.484999999999999</v>
       </c>
       <c r="K19" s="1">
         <v>110.181202</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="1">
+        <v>96.336267000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>458</v>
       </c>
@@ -734,14 +851,20 @@
       <c r="C20">
         <v>94.103999999999999</v>
       </c>
+      <c r="D20">
+        <v>93.542000000000002</v>
+      </c>
       <c r="J20">
         <v>97.311000000000007</v>
       </c>
       <c r="K20" s="1">
         <v>91.864862900000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="1">
+        <v>99.352209999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>459</v>
       </c>
@@ -751,14 +874,20 @@
       <c r="C21">
         <v>84.153000000000006</v>
       </c>
+      <c r="D21">
+        <v>84.153000000000006</v>
+      </c>
       <c r="J21">
         <v>89.581000000000003</v>
       </c>
       <c r="K21" s="1">
         <v>102.67712899999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="1">
+        <v>93.039548199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>462</v>
       </c>
@@ -768,14 +897,20 @@
       <c r="C22">
         <v>100</v>
       </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
       <c r="J22">
         <v>90.14</v>
       </c>
       <c r="K22" s="1">
         <v>110.55234</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="1">
+        <v>94.230708100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>464</v>
       </c>
@@ -785,14 +920,20 @@
       <c r="C23">
         <v>71.772000000000006</v>
       </c>
+      <c r="D23">
+        <v>72.97</v>
+      </c>
       <c r="J23">
         <v>86.165000000000006</v>
       </c>
       <c r="K23" s="1">
         <v>91.624966099999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="1">
+        <v>93.503669000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>465</v>
       </c>
@@ -802,14 +943,20 @@
       <c r="C24">
         <v>79.430999999999997</v>
       </c>
+      <c r="D24">
+        <v>78.873999999999995</v>
+      </c>
       <c r="J24">
         <v>80.817999999999998</v>
       </c>
       <c r="K24" s="1">
         <v>82.312310199999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="1">
+        <v>88.470956999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>470</v>
       </c>
@@ -819,14 +966,20 @@
       <c r="C25">
         <v>99.938999999999993</v>
       </c>
+      <c r="D25">
+        <v>99.731999999999999</v>
+      </c>
       <c r="J25">
         <v>98.933000000000007</v>
       </c>
       <c r="K25" s="1">
         <v>105.379064</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="1">
+        <v>105.14158999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>471</v>
       </c>
@@ -836,14 +989,20 @@
       <c r="C26">
         <v>60.055999999999997</v>
       </c>
+      <c r="D26">
+        <v>59.368000000000002</v>
+      </c>
       <c r="J26">
         <v>91.725999999999999</v>
       </c>
       <c r="K26" s="1">
         <v>107.80216900000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="1">
+        <v>100.87163200000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>473</v>
       </c>
@@ -853,14 +1012,20 @@
       <c r="C27">
         <v>5.8470000000000004</v>
       </c>
+      <c r="D27">
+        <v>5.8470000000000004</v>
+      </c>
       <c r="J27">
         <v>96.027000000000001</v>
       </c>
       <c r="K27" s="1">
         <v>118.97743800000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="1">
+        <v>94.128049099999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>482</v>
       </c>
@@ -870,14 +1035,20 @@
       <c r="C28">
         <v>97.262</v>
       </c>
+      <c r="D28">
+        <v>97.165000000000006</v>
+      </c>
       <c r="J28">
         <v>89.194000000000003</v>
       </c>
       <c r="K28" s="1">
         <v>99.840789099999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="1">
+        <v>96.764581199999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>483</v>
       </c>
@@ -887,14 +1058,20 @@
       <c r="C29">
         <v>67.58</v>
       </c>
+      <c r="D29">
+        <v>64.239999999999995</v>
+      </c>
       <c r="J29">
         <v>94.662999999999997</v>
       </c>
       <c r="K29" s="1">
         <v>110.83466799999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="1">
+        <v>101.703447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>999</v>
       </c>
@@ -904,11 +1081,43 @@
       <c r="C30">
         <v>96.320999999999998</v>
       </c>
+      <c r="D30">
+        <v>96.001000000000005</v>
+      </c>
       <c r="J30">
         <v>52.363999999999997</v>
       </c>
       <c r="K30" s="1">
         <v>60.989860100000001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>55.382055000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>AVERAGE(B2:B30)</f>
+        <v>64.636103448275847</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:D31" si="0">AVERAGE(C2:C30)</f>
+        <v>65.420137931034475</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>63.82958620689655</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGE(J2:J30)</f>
+        <v>86.71493103448276</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:L31" si="1">AVERAGE(K2:K30)</f>
+        <v>95.234549134482762</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>90.016640755172403</v>
       </c>
     </row>
   </sheetData>

--- a/utils/result.xlsx
+++ b/utils/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencewang/Desktop/SpringSem2019/ComputerArchitecture/Experiment/experiment/CRC/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7334B66-CB73-AE47-B28A-FD9C686E2FEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B63223-5AB7-044F-B8D2-6D54B5E862B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="3300" windowWidth="28800" windowHeight="17540" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6BFFEE9F-5270-4741-99BE-F7D46D831158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>LRU</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Protected LRU</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -396,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF70AC-657B-2244-93C2-2037CCC8E81B}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -417,6 +420,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +432,11 @@
       <c r="L1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400</v>
       </c>
@@ -440,6 +449,9 @@
       <c r="D2">
         <v>40.625</v>
       </c>
+      <c r="E2">
+        <v>40.584000000000003</v>
+      </c>
       <c r="J2">
         <v>11.305999999999999</v>
       </c>
@@ -449,8 +461,11 @@
       <c r="L2" s="1">
         <v>11.4239991</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>12.257759999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>401</v>
       </c>
@@ -463,6 +478,9 @@
       <c r="D3">
         <v>59.104999999999997</v>
       </c>
+      <c r="E3">
+        <v>54.859000000000002</v>
+      </c>
       <c r="J3">
         <v>88.179000000000002</v>
       </c>
@@ -472,8 +490,11 @@
       <c r="L3" s="1">
         <v>95.403081900000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>87.04813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>403</v>
       </c>
@@ -486,6 +507,9 @@
       <c r="D4">
         <v>34.162999999999997</v>
       </c>
+      <c r="E4">
+        <v>38.555999999999997</v>
+      </c>
       <c r="J4">
         <v>98.787999999999997</v>
       </c>
@@ -495,8 +519,11 @@
       <c r="L4" s="1">
         <v>99.693224000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>101.775902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>410</v>
       </c>
@@ -509,6 +536,9 @@
       <c r="D5">
         <v>99.662999999999997</v>
       </c>
+      <c r="E5">
+        <v>99.662999999999997</v>
+      </c>
       <c r="J5">
         <v>88.962000000000003</v>
       </c>
@@ -518,8 +548,11 @@
       <c r="L5" s="1">
         <v>86.633960000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>90.868127799999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>416</v>
       </c>
@@ -532,6 +565,9 @@
       <c r="D6">
         <v>31.651</v>
       </c>
+      <c r="E6">
+        <v>30.311</v>
+      </c>
       <c r="J6">
         <v>82.284999999999997</v>
       </c>
@@ -541,8 +577,11 @@
       <c r="L6" s="1">
         <v>95.512142900000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>85.239625000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>429</v>
       </c>
@@ -555,6 +594,9 @@
       <c r="D7">
         <v>61.924999999999997</v>
       </c>
+      <c r="E7">
+        <v>55.628</v>
+      </c>
       <c r="J7">
         <v>111.264</v>
       </c>
@@ -564,8 +606,11 @@
       <c r="L7" s="1">
         <v>111.61560299999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>106.257099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>433</v>
       </c>
@@ -578,6 +623,9 @@
       <c r="D8">
         <v>73.397000000000006</v>
       </c>
+      <c r="E8">
+        <v>79.319000000000003</v>
+      </c>
       <c r="J8">
         <v>95.216999999999999</v>
       </c>
@@ -587,8 +635,11 @@
       <c r="L8" s="1">
         <v>97.492812900000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>92.881539799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>434</v>
       </c>
@@ -601,6 +652,9 @@
       <c r="D9">
         <v>80.671999999999997</v>
       </c>
+      <c r="E9">
+        <v>81.272999999999996</v>
+      </c>
       <c r="J9">
         <v>86.534999999999997</v>
       </c>
@@ -610,8 +664,11 @@
       <c r="L9" s="1">
         <v>90.203806200000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>86.681467056299994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>435</v>
       </c>
@@ -624,6 +681,9 @@
       <c r="D10">
         <v>88.769000000000005</v>
       </c>
+      <c r="E10">
+        <v>88.897000000000006</v>
+      </c>
       <c r="J10">
         <v>91.88</v>
       </c>
@@ -633,8 +693,11 @@
       <c r="L10" s="1">
         <v>93.902388099999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>106.76014600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>436</v>
       </c>
@@ -647,6 +710,9 @@
       <c r="D11">
         <v>60.292999999999999</v>
       </c>
+      <c r="E11">
+        <v>64.254000000000005</v>
+      </c>
       <c r="J11">
         <v>93.781999999999996</v>
       </c>
@@ -656,8 +722,11 @@
       <c r="L11" s="1">
         <v>86.971398100000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>90.320189999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>437</v>
       </c>
@@ -670,6 +739,9 @@
       <c r="D12">
         <v>76.856999999999999</v>
       </c>
+      <c r="E12">
+        <v>74.072999999999993</v>
+      </c>
       <c r="J12">
         <v>89.251999999999995</v>
       </c>
@@ -679,8 +751,11 @@
       <c r="L12" s="1">
         <v>97.907253999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>96.633374000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>444</v>
       </c>
@@ -693,6 +768,9 @@
       <c r="D13">
         <v>66.266000000000005</v>
       </c>
+      <c r="E13">
+        <v>66.266000000000005</v>
+      </c>
       <c r="J13">
         <v>75.444999999999993</v>
       </c>
@@ -702,8 +780,11 @@
       <c r="L13" s="1">
         <v>84.086731900000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>83.425776999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>445</v>
       </c>
@@ -716,6 +797,9 @@
       <c r="D14">
         <v>14.593</v>
       </c>
+      <c r="E14">
+        <v>14.837999999999999</v>
+      </c>
       <c r="J14">
         <v>86.007000000000005</v>
       </c>
@@ -725,8 +809,11 @@
       <c r="L14" s="1">
         <v>92.770483999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>96.106774999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>447</v>
       </c>
@@ -739,6 +826,9 @@
       <c r="D15">
         <v>38.935000000000002</v>
       </c>
+      <c r="E15">
+        <v>33.911999999999999</v>
+      </c>
       <c r="J15">
         <v>100.492</v>
       </c>
@@ -748,8 +838,11 @@
       <c r="L15" s="1">
         <v>101.884304</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>98.418999900000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
@@ -762,6 +855,9 @@
       <c r="D16">
         <v>16.059000000000001</v>
       </c>
+      <c r="E16">
+        <v>16.704000000000001</v>
+      </c>
       <c r="J16">
         <v>56.247</v>
       </c>
@@ -771,8 +867,11 @@
       <c r="L16" s="1">
         <v>53.954671099999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>56.595951800000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>453</v>
       </c>
@@ -785,6 +884,9 @@
       <c r="D17">
         <v>39.884999999999998</v>
       </c>
+      <c r="E17">
+        <v>39.79</v>
+      </c>
       <c r="J17">
         <v>102.956</v>
       </c>
@@ -794,8 +896,11 @@
       <c r="L17" s="1">
         <v>98.416799999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>99.291554000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>454</v>
       </c>
@@ -808,6 +913,9 @@
       <c r="D18">
         <v>44.834000000000003</v>
       </c>
+      <c r="E18">
+        <v>51.228000000000002</v>
+      </c>
       <c r="J18">
         <v>96.728999999999999</v>
       </c>
@@ -817,8 +925,11 @@
       <c r="L18" s="1">
         <v>93.6852071</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>102.190692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>456</v>
       </c>
@@ -831,6 +942,9 @@
       <c r="D19">
         <v>71.474000000000004</v>
       </c>
+      <c r="E19">
+        <v>71.474000000000004</v>
+      </c>
       <c r="J19">
         <v>92.484999999999999</v>
       </c>
@@ -840,8 +954,11 @@
       <c r="L19" s="1">
         <v>96.336267000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>113.389166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>458</v>
       </c>
@@ -854,6 +971,9 @@
       <c r="D20">
         <v>93.542000000000002</v>
       </c>
+      <c r="E20">
+        <v>93.385999999999996</v>
+      </c>
       <c r="J20">
         <v>97.311000000000007</v>
       </c>
@@ -863,8 +983,11 @@
       <c r="L20" s="1">
         <v>99.352209999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>96.349561199999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>459</v>
       </c>
@@ -877,6 +1000,9 @@
       <c r="D21">
         <v>84.153000000000006</v>
       </c>
+      <c r="E21">
+        <v>84.153000000000006</v>
+      </c>
       <c r="J21">
         <v>89.581000000000003</v>
       </c>
@@ -886,8 +1012,11 @@
       <c r="L21" s="1">
         <v>93.039548199999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>100.445847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>462</v>
       </c>
@@ -900,6 +1029,9 @@
       <c r="D22">
         <v>100</v>
       </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
       <c r="J22">
         <v>90.14</v>
       </c>
@@ -909,8 +1041,11 @@
       <c r="L22" s="1">
         <v>94.230708100000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>90.447689999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>464</v>
       </c>
@@ -923,6 +1058,9 @@
       <c r="D23">
         <v>72.97</v>
       </c>
+      <c r="E23">
+        <v>72.656999999999996</v>
+      </c>
       <c r="J23">
         <v>86.165000000000006</v>
       </c>
@@ -932,8 +1070,11 @@
       <c r="L23" s="1">
         <v>93.503669000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>86.574054000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>465</v>
       </c>
@@ -946,6 +1087,9 @@
       <c r="D24">
         <v>78.873999999999995</v>
       </c>
+      <c r="E24">
+        <v>78.822000000000003</v>
+      </c>
       <c r="J24">
         <v>80.817999999999998</v>
       </c>
@@ -955,8 +1099,11 @@
       <c r="L24" s="1">
         <v>88.470956999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>83.361092099999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>470</v>
       </c>
@@ -969,6 +1116,9 @@
       <c r="D25">
         <v>99.731999999999999</v>
       </c>
+      <c r="E25">
+        <v>99.466999999999999</v>
+      </c>
       <c r="J25">
         <v>98.933000000000007</v>
       </c>
@@ -978,8 +1128,11 @@
       <c r="L25" s="1">
         <v>105.14158999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>96.518405000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>471</v>
       </c>
@@ -992,6 +1145,9 @@
       <c r="D26">
         <v>59.368000000000002</v>
       </c>
+      <c r="E26">
+        <v>59.198999999999998</v>
+      </c>
       <c r="J26">
         <v>91.725999999999999</v>
       </c>
@@ -1001,8 +1157,11 @@
       <c r="L26" s="1">
         <v>100.87163200000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>94.802324100000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>473</v>
       </c>
@@ -1015,6 +1174,9 @@
       <c r="D27">
         <v>5.8470000000000004</v>
       </c>
+      <c r="E27">
+        <v>5.8470000000000004</v>
+      </c>
       <c r="J27">
         <v>96.027000000000001</v>
       </c>
@@ -1024,8 +1186,11 @@
       <c r="L27" s="1">
         <v>94.128049099999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>100.18992299999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>482</v>
       </c>
@@ -1038,6 +1203,9 @@
       <c r="D28">
         <v>97.165000000000006</v>
       </c>
+      <c r="E28">
+        <v>97.165000000000006</v>
+      </c>
       <c r="J28">
         <v>89.194000000000003</v>
       </c>
@@ -1047,8 +1215,11 @@
       <c r="L28" s="1">
         <v>96.764581199999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>97.855849000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>483</v>
       </c>
@@ -1061,6 +1232,9 @@
       <c r="D29">
         <v>64.239999999999995</v>
       </c>
+      <c r="E29">
+        <v>64.317999999999998</v>
+      </c>
       <c r="J29">
         <v>94.662999999999997</v>
       </c>
@@ -1070,8 +1244,11 @@
       <c r="L29" s="1">
         <v>101.703447</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>102.71901800000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>999</v>
       </c>
@@ -1084,6 +1261,9 @@
       <c r="D30">
         <v>96.001000000000005</v>
       </c>
+      <c r="E30">
+        <v>96.001000000000005</v>
+      </c>
       <c r="J30">
         <v>52.363999999999997</v>
       </c>
@@ -1093,31 +1273,42 @@
       <c r="L30" s="1">
         <v>55.382055000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>55.259874099999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31">
         <f>AVERAGE(B2:B30)</f>
         <v>64.636103448275847</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D31" si="0">AVERAGE(C2:C30)</f>
+        <f t="shared" ref="C31:E31" si="0">AVERAGE(C2:C30)</f>
         <v>65.420137931034475</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>63.82958620689655</v>
       </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>63.884275862068968</v>
+      </c>
       <c r="J31">
         <f>AVERAGE(J2:J30)</f>
         <v>86.71493103448276</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:L31" si="1">AVERAGE(K2:K30)</f>
+        <f t="shared" ref="K31:M31" si="1">AVERAGE(K2:K30)</f>
         <v>95.234549134482762</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
         <v>90.016640755172403</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>90.022962546768937</v>
       </c>
     </row>
   </sheetData>
